--- a/list.xlsx
+++ b/list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2225" uniqueCount="1661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2213" uniqueCount="1652">
   <si>
     <t>双色球从2017056 到 2018085期的中奖信息</t>
   </si>
@@ -4967,33 +4967,6 @@
   </si>
   <si>
     <t>698,067,117</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>2017-05-16</t>
-  </si>
-  <si>
-    <t>2017056</t>
-  </si>
-  <si>
-    <t>13 21 14 18 19 28 06</t>
-  </si>
-  <si>
-    <t>317,424,132</t>
-  </si>
-  <si>
-    <t>7,367,832</t>
-  </si>
-  <si>
-    <t>128,686</t>
-  </si>
-  <si>
-    <t>900</t>
-  </si>
-  <si>
-    <t>697,988,120</t>
   </si>
   <si>
     <t>02 07 17 21 23 26 16</t>
@@ -5144,6 +5117,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5157,9 +5133,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5467,10 +5440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N189"/>
+  <dimension ref="A1:N188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="D192" sqref="D192"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="E196" sqref="E196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5484,59 +5457,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="2" t="s">
+      <c r="I2" s="5"/>
+      <c r="J2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="5" t="s">
+      <c r="K2" s="5"/>
+      <c r="L2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
@@ -5555,7 +5528,7 @@
       <c r="K3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="6"/>
+      <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -11013,7 +10986,7 @@
         <v>1203</v>
       </c>
       <c r="N133">
-        <f t="shared" ref="N133:N187" si="2">G133*0.8</f>
+        <f t="shared" ref="N133:N186" si="2">G133*0.8</f>
         <v>8000000</v>
       </c>
     </row>
@@ -13244,87 +13217,45 @@
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
+      <c r="A187" s="1">
+        <v>1</v>
+      </c>
+      <c r="B187" s="1">
+        <v>43307</v>
+      </c>
+      <c r="C187" s="1">
+        <v>2018086</v>
+      </c>
+      <c r="D187" s="2" t="s">
         <v>1651</v>
       </c>
-      <c r="B187" s="1" t="s">
-        <v>1652</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>1653</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>1654</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>1655</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G187" s="1" t="s">
-        <v>1656</v>
-      </c>
-      <c r="H187" s="1" t="s">
-        <v>1651</v>
-      </c>
-      <c r="I187" s="1" t="s">
-        <v>1657</v>
-      </c>
-      <c r="J187" s="1" t="s">
-        <v>1658</v>
-      </c>
-      <c r="K187" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L187" s="1" t="s">
-        <v>1659</v>
-      </c>
-      <c r="N187">
-        <f t="shared" si="2"/>
-        <v>5894265.6000000006</v>
+      <c r="E187" s="1">
+        <v>322631262</v>
+      </c>
+      <c r="F187" s="1">
+        <v>18</v>
+      </c>
+      <c r="G187" s="1">
+        <v>5839185</v>
+      </c>
+      <c r="H187" s="1">
+        <v>109</v>
+      </c>
+      <c r="I187" s="1">
+        <v>173226</v>
+      </c>
+      <c r="J187" s="1">
+        <v>1524</v>
+      </c>
+      <c r="K187" s="1">
+        <v>3000</v>
+      </c>
+      <c r="L187" s="1">
+        <v>767052918</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A188" s="1">
-        <v>1</v>
-      </c>
-      <c r="B188" s="1">
-        <v>43307</v>
-      </c>
-      <c r="C188" s="1">
-        <v>2018086</v>
-      </c>
-      <c r="D188" s="7" t="s">
-        <v>1660</v>
-      </c>
-      <c r="E188" s="1">
-        <v>322631262</v>
-      </c>
-      <c r="F188" s="1">
-        <v>18</v>
-      </c>
-      <c r="G188" s="1">
-        <v>5839185</v>
-      </c>
-      <c r="H188" s="1">
-        <v>109</v>
-      </c>
-      <c r="I188" s="1">
-        <v>173226</v>
-      </c>
-      <c r="J188" s="1">
-        <v>1524</v>
-      </c>
-      <c r="K188" s="1">
-        <v>3000</v>
-      </c>
-      <c r="L188" s="1">
-        <v>767052918</v>
-      </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D189" s="7"/>
+      <c r="D188" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="10">
